--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4460,9 +4460,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>Shirin</t>
   </si>
 </sst>
 </file>
@@ -18137,7 +18134,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18224,10 +18221,10 @@
         <v>1472</v>
       </c>
       <c r="C6" t="s">
-        <v>1475</v>
+        <v>1275</v>
       </c>
       <c r="D6" t="s">
-        <v>1475</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
